--- a/src/test/java/Test_Data/DataEnteries.xlsx
+++ b/src/test/java/Test_Data/DataEnteries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivamkukreja\Desktop\Rest-Assured\Rest_Assignment\src\test\java\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E63D1782-D70D-41B4-89FD-25B6812F9908}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{741D61BD-EFFD-4D01-B457-A4DF04ECBAC0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>List_Title</t>
   </si>
@@ -57,55 +57,97 @@
     <t>Task_Revision</t>
   </si>
   <si>
-    <t>409064680</t>
-  </si>
-  <si>
-    <t>5545257863</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>409064974</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>5545268072</t>
+    <t>409111120</t>
+  </si>
+  <si>
+    <t>5546994144</t>
+  </si>
+  <si>
+    <t>Updt_Task</t>
+  </si>
+  <si>
+    <t>UpdatedTask</t>
+  </si>
+  <si>
+    <t>409111432</t>
+  </si>
+  <si>
+    <t>5547004228</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>409065362</t>
-  </si>
-  <si>
-    <t>5545285722</t>
-  </si>
-  <si>
-    <t>409065534</t>
-  </si>
-  <si>
-    <t>5545292099</t>
-  </si>
-  <si>
-    <t>409066028</t>
-  </si>
-  <si>
-    <t>5545310319</t>
-  </si>
-  <si>
-    <t>409066214</t>
-  </si>
-  <si>
-    <t>5545316509</t>
-  </si>
-  <si>
-    <t>409066620</t>
-  </si>
-  <si>
-    <t>5545331050</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>409111694</t>
+  </si>
+  <si>
+    <t>5547011281</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>409120429</t>
+  </si>
+  <si>
+    <t>5547357202</t>
+  </si>
+  <si>
+    <t>409120759</t>
+  </si>
+  <si>
+    <t>5547373199</t>
+  </si>
+  <si>
+    <t>409120893</t>
+  </si>
+  <si>
+    <t>5547378651</t>
+  </si>
+  <si>
+    <t>409121132</t>
+  </si>
+  <si>
+    <t>5547388137</t>
+  </si>
+  <si>
+    <t>409121199</t>
+  </si>
+  <si>
+    <t>5547391001</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>409132620</t>
+  </si>
+  <si>
+    <t>5547863675</t>
+  </si>
+  <si>
+    <t>409135255</t>
+  </si>
+  <si>
+    <t>5547982221</t>
+  </si>
+  <si>
+    <t>409135383</t>
+  </si>
+  <si>
+    <t>5547987977</t>
   </si>
 </sst>
 </file>
@@ -424,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,9 +481,10 @@
     <col min="5" max="5" customWidth="true" width="13.453125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.1796875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="19.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,28 +506,34 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
